--- a/config/TextConfig.xlsx
+++ b/config/TextConfig.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\work\egret\h5\jrdh\tools\src\tipcat.com\tools\conf\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12615"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>编号</t>
   </si>
@@ -101,6 +96,51 @@
     <t>第{0}天</t>
   </si>
   <si>
+    <t>神秘导师</t>
+  </si>
+  <si>
+    <t>签到成功!记得明天再来</t>
+  </si>
+  <si>
+    <t>请领取您的礼包!</t>
+  </si>
+  <si>
+    <t>第{0}期结算</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>当前股市休盘中,请前往虚拟盘继续high!</t>
+  </si>
+  <si>
+    <t>必须是{0}的倍数!</t>
+  </si>
+  <si>
+    <t>可兑换:{0}</t>
+  </si>
+  <si>
+    <t>当前拥有:{0}</t>
+  </si>
+  <si>
+    <t>装扮成功!</t>
+  </si>
+  <si>
+    <t>穿戴整齐才能出门哦!</t>
+  </si>
+  <si>
+    <t>保存好新装扮哦!</t>
+  </si>
+  <si>
+    <t>高于</t>
+  </si>
+  <si>
+    <t>低于</t>
+  </si>
+  <si>
+    <t>包含{0}个附件</t>
+  </si>
+  <si>
     <t>自选</t>
   </si>
   <si>
@@ -377,15 +417,35 @@
     <t>委托状态</t>
   </si>
   <si>
-    <t>你好\n你好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>{0}不足!</t>
+  </si>
+  <si>
+    <t>欢迎来到“股神传奇”\n的教学殿堂！在这要Good Good Study Day Day Up！</t>
+  </si>
+  <si>
+    <t>“尊敬”的股民们：\n  欢迎来到“股神传奇”学堂。\n  通过观察，发现你骨骼精奇，定是万中无一的奇才，未来维护世界和平就靠你了，作为导师定要给你一些见面礼，就收下吧！\n        ——神秘导师</t>
+  </si>
+  <si>
+    <t>亲爱的{3}，您好，{0}第{1}期已结束，在本轮竞猜中您获得资产{2}。</t>
+  </si>
+  <si>
+    <t>挑战结算通知</t>
+  </si>
+  <si>
+    <t>欢迎来到股神学堂</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,30 +461,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -432,13 +813,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,21 +1077,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -755,26 +1425,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -790,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -798,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -806,7 +1476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -814,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -822,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -830,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -838,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -846,7 +1516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -854,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -862,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -870,7 +1540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -878,7 +1548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -886,7 +1556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -894,7 +1564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -902,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -910,7 +1580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -918,7 +1588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -926,7 +1596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -934,7 +1604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -942,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -950,7 +1620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -958,789 +1628,950 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>3001</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>3002</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>3003</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>3004</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>3005</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>3006</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>3007</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>3008</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>3009</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>3010</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>3011</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>3012</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>3013</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>3014</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>3015</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>3016</v>
+        <v>3001</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>3017</v>
+        <v>3002</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>3018</v>
+        <v>3003</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>3019</v>
+        <v>3004</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>3020</v>
+        <v>3005</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>3021</v>
+        <v>3006</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>3022</v>
+        <v>3007</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>3023</v>
+        <v>3008</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>3024</v>
+        <v>3009</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>3025</v>
+        <v>3010</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>3026</v>
+        <v>3011</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>3027</v>
+        <v>3012</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>3028</v>
+        <v>3013</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
+        <v>3014</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>3015</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>3016</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>3017</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>3018</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>3019</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>3020</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>3021</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>3022</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>3023</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>3024</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>3025</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>3026</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>3027</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>3028</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>3029</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+      <c r="B67" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>3030</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
-        <v>3031</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
-        <v>3032</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
-        <v>3033</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
-        <v>3034</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
-        <v>3035</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
-        <v>3036</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
-        <v>3037</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
-        <v>3038</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
-        <v>3039</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
-        <v>3040</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
-        <v>3041</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
-        <v>3042</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
-        <v>3043</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
-        <v>3044</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
-        <v>3045</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>3046</v>
+        <v>3031</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>3047</v>
+        <v>3032</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>3048</v>
+        <v>3033</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>3049</v>
+        <v>3034</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>3050</v>
+        <v>3035</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>3051</v>
+        <v>3036</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>3052</v>
+        <v>3037</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>3053</v>
+        <v>3038</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>3054</v>
+        <v>3039</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>3055</v>
+        <v>3040</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>3056</v>
+        <v>3041</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>3057</v>
+        <v>3042</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>3058</v>
+        <v>3043</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>3059</v>
+        <v>3044</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
+        <v>3045</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>3046</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
+        <v>3047</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
+        <v>3048</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
+        <v>3049</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
+        <v>3050</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
+        <v>3051</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
+        <v>3052</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
+        <v>3053</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>3054</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>3055</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>3056</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>3057</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>3058</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>3059</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>3060</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="2">
+      <c r="B98" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>3061</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="2">
-        <v>3062</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="2">
-        <v>3063</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="2">
-        <v>3064</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="2">
-        <v>3065</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="2">
-        <v>3066</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
-        <v>3067</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
-        <v>3068</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
-        <v>3069</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
-        <v>3070</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
-        <v>3071</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="2">
-        <v>3072</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="2">
-        <v>3073</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
-        <v>3074</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="2">
-        <v>3076</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>3077</v>
+        <v>3062</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>3078</v>
+        <v>3063</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>3079</v>
+        <v>3064</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>3080</v>
+        <v>3065</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>3081</v>
+        <v>3066</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>3082</v>
+        <v>3067</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
+        <v>3068</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>3069</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>3070</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>3071</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>3072</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>3073</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>3074</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>3075</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>3076</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>3077</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>3078</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>3079</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>3080</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>3081</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>3082</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>3083</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
+      <c r="B121" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>3084</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="2">
+      <c r="B122" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>3085</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="2">
+      <c r="B123" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>3086</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="2">
+      <c r="B124" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>3087</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="2">
+      <c r="B125" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>3088</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="2">
+      <c r="B126" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>3089</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="2">
+      <c r="B127" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>3090</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="2">
+      <c r="B128" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>3091</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="2">
+      <c r="B129" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>3092</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="2">
+      <c r="B130" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>3093</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="2">
+      <c r="B131" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>3094</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="2">
-        <v>3095</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>118</v>
+      <c r="B132" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>10001</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>12001</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" ht="36" spans="1:2">
+      <c r="A135" s="2">
+        <v>12002</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>12003</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>12004</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>12005</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:B3">
       <formula1>"int,int[],float,float[],bool,bool[],string,string[]"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="E6:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="5:7">
       <c r="E6" s="1">
         <v>256</v>
       </c>
@@ -1753,22 +2584,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>